--- a/test/construct_data/Automatic_reg.result/polynomial/5_5_13_58/result.xlsx
+++ b/test/construct_data/Automatic_reg.result/polynomial/5_5_13_58/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_relate\local_storage\Graduation-Project-Of-Undergraduate\test\construct_data\Automatic_reg.result\polynomial\5_5_13_58\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032C1651-D9C2-47EA-A9A4-3644ACAFC3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EADEDBB-9CF7-422E-8C15-048BE8757B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4545" yWindow="4545" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,27 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
-    <t>Pass_alltest</t>
-  </si>
-  <si>
-    <t>Norm_test</t>
-  </si>
-  <si>
-    <t>Heter_test</t>
-  </si>
-  <si>
-    <t>Autocorr_test</t>
-  </si>
-  <si>
-    <t>End_test</t>
-  </si>
-  <si>
-    <t>spearman_label</t>
-  </si>
-  <si>
-    <t>GQ_label</t>
-  </si>
-  <si>
     <t>coef_pvalue</t>
   </si>
   <si>
@@ -257,6 +236,34 @@
   </si>
   <si>
     <t>Y~N1+N17+N16+N15+N14+N13+N12+N11+N10+N7+N5+N3+N9+B2+B1+M1+N12^2+N3^2+N2^2</t>
+  </si>
+  <si>
+    <t>Pass_alltest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norm_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heter_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autocorr_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>End_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spearman_label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GQ_label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -667,51 +674,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="39.75" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="60.875" customWidth="1"/>
-    <col min="10" max="10" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="47" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -734,13 +747,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>0.99860000000000004</v>
@@ -749,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -772,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <v>0.99860000000000004</v>
@@ -787,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -810,13 +823,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J4">
         <v>0.99860000000000004</v>
@@ -825,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -848,13 +861,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <v>0.99860000000000004</v>
@@ -863,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -886,13 +899,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J6">
         <v>0.99860000000000004</v>
@@ -901,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -924,13 +937,13 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J7">
         <v>0.99860000000000004</v>
@@ -939,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -962,13 +975,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J8">
         <v>0.99860000000000004</v>
@@ -977,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -1000,13 +1013,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J9">
         <v>0.99860000000000004</v>
@@ -1015,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1038,13 +1051,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>0.99860000000000004</v>
@@ -1053,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1076,13 +1089,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J11">
         <v>0.99860000000000004</v>
@@ -1091,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1114,13 +1127,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J12">
         <v>0.99860000000000004</v>
@@ -1129,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1152,13 +1165,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J13">
         <v>0.99860000000000004</v>
@@ -1167,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -1190,13 +1203,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J14">
         <v>0.99860000000000004</v>
@@ -1205,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1228,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J15">
         <v>0.99860000000000004</v>
@@ -1243,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -1266,13 +1279,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J16">
         <v>0.99860000000000004</v>
@@ -1281,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -1304,13 +1317,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J17">
         <v>0.99860000000000004</v>
@@ -1319,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -1342,13 +1355,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J18">
         <v>0.99860000000000004</v>
@@ -1357,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -1380,13 +1393,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J19">
         <v>0.99860000000000004</v>
@@ -1395,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -1418,13 +1431,13 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J20">
         <v>0.99860000000000004</v>
@@ -1433,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
